--- a/biology/Botanique/Eucalyptus_marginata/Eucalyptus_marginata.xlsx
+++ b/biology/Botanique/Eucalyptus_marginata/Eucalyptus_marginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">jarrah marginata, le jarrah, arbre de la famille des Myrtaceae, est une espèce d'Eucalyptus parmi les plus communes dans le sud-ouest de l'Australie. L'adjectif spécifique, marginata, fait référence à la nervure légèrement colorée qui suit le bord des feuilles. À cause de la ressemblance du bois de jarrah avec celui de l'acajou du Honduras, le jarrah fut autrefois désigné en Australie sous le nom de Swan River mahogany, d'après le nom du cours d'eau qui arrose Perth. On le désigne de nos jours presque exclusivement par son nom aborigène.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jarrah est un grand arbre qui peut atteindre 40 mètres de haut, le tronc pouvant avoir jusqu'à 2,6 mètres de diamètre, avec une écorce fibreuse, grossière, brun-grisâtre, rainurée verticalement, qui se desquame en longue bandes.
 Les feuilles, de 8 à 13 cm de long sur 1,5 à 3 cm de large, sont souvent courbées, de couleur vert foncé brillant au-dessus, plus pâles en dessous.
@@ -546,7 +560,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est endémique d'Australie-Occidentale.
 Le jarrah est un élément important de son milieu, procurant de nombreuses niches pour la faune sauvage, notamment les oiseaux et les abeilles, lorsqu'il est vivant, mais aussi dans le creux qui se forme à la suite de la décomposition du cœur du bois, et lorsqu'il tombe, il fournit un abri à des habitants du sol tels que le chat marsupial de Geoffroy (Dasyurus geoffroii).
@@ -579,7 +595,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs de jarrah servent à la production de miel, mais son principal intérêt vient de son bois. C'est un bois lourd, avec un poids spécifique de 1,1 quand il est vert. Ses troncs longs et droits fournissent un bois à joli grain et richement coloré, résistant aux termites qui est apprécié pour l'ébénisterie, les parquets, les lambris et les meubles d'extérieur. Le bois fini a une couleur profonde, riche, brun rougeâtre et un grain attrayant. Quand il est frais, le bois de jarrah est facile à travailler mais une fois séché il devient si dur qu'aucun outil conventionnel n'est utilisable. C'est un bois très durable, même dans des situations exposées aux intempéries, ce qui en fait un matériau de choix pour les ponts, les quais, les traverses de chemin de fer, la construction navale et les poteaux télégraphiques.
 Le bois de jarrah est très voisin du bois de Karri (Eucalyptus diversicolor). S'agissant de deux arbres originaires du sud-ouest de l'Australie, les deux bois sont fréquemment confondus. On peut les distinguer en coupant un éclat et en le brûlant : le karri brûle complètement, produisant une cendre blanche, tandis que le jarrah se transforme en charbon de bois. La plupart des meilleurs jarrahs ont déjà été abattus dans le sud-ouest de l'Australie.
@@ -615,9 +633,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (5 févr. 2011)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (5 févr. 2011) :
 Eucalyptus marginata Donn ex Sm. (1802)
 sous-espèce Eucalyptus marginata subsp. elegantella Brooker &amp; Hopper (1993)
 sous-espèce Eucalyptus marginata subsp. marginata
